--- a/hebrewOutputs/hebrewComparison_6.xlsx
+++ b/hebrewOutputs/hebrewComparison_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="157">
   <si>
     <t>Sentence</t>
   </si>
@@ -85,69 +85,69 @@
     <t>יודעים מה יש לו?</t>
   </si>
   <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>נו אז יאללה נו אז יאללה,</t>
+  </si>
+  <si>
+    <t>אני רק רוצה,</t>
+  </si>
+  <si>
+    <t>תן לי את האנטיביוטיקה (לא נשמע) ובוא נשחרר אותו הביתה.</t>
+  </si>
+  <si>
+    <t>?service</t>
+  </si>
+  <si>
+    <t>לא. לא מדובר במחלה כזאת של אנטיביוטיקה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אני צריך שתשב רגע אני גם רוצה להסביר לך כמה דברים לגבי מה שמצאו לו. </t>
+  </si>
+  <si>
+    <t>בגלל שזה משהו ש...</t>
+  </si>
+  <si>
+    <t>... מה קרה?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא קרה לו שום דבר נוראי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבל זה משהו שאתה צריך להבין זה ש... אא... ילווה אותו עכשיו לכל החיים. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בוא, בוא נשב. </t>
+  </si>
+  <si>
+    <t>אני קודם כל רוצה להבין ממך</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אא בעצם אתה הבאת אותו למיון</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>מה מה מה מה מה מה?</t>
+  </si>
+  <si>
     <t>?bid</t>
   </si>
   <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>נו אז יאללה נו אז יאללה,</t>
-  </si>
-  <si>
-    <t>אני רק רוצה,</t>
-  </si>
-  <si>
-    <t>תן לי את האנטיביוטיקה (לא נשמע) ובוא נשחרר אותו הביתה.</t>
-  </si>
-  <si>
-    <t>?service</t>
-  </si>
-  <si>
-    <t>לא. לא מדובר במחלה כזאת של אנטיביוטיקה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אני צריך שתשב רגע אני גם רוצה להסביר לך כמה דברים לגבי מה שמצאו לו. </t>
-  </si>
-  <si>
-    <t>בגלל שזה משהו ש...</t>
-  </si>
-  <si>
-    <t>... מה קרה?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא קרה לו שום דבר נוראי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל זה משהו שאתה צריך להבין זה ש... אא... ילווה אותו עכשיו לכל החיים. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בוא, בוא נשב. </t>
-  </si>
-  <si>
-    <t>אני קודם כל רוצה להבין ממך</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אא בעצם אתה הבאת אותו למיון</t>
-  </si>
-  <si>
-    <t>approve</t>
-  </si>
-  <si>
-    <t>מה מה מה מה מה מה?</t>
-  </si>
-  <si>
     <t>אני רוצה להבין ממך,</t>
   </si>
   <si>
     <t>אני שמעתי.</t>
   </si>
   <si>
-    <t>gives-other</t>
-  </si>
-  <si>
     <t xml:space="preserve"> מה זה ילווה אותו לכל החיים?</t>
   </si>
   <si>
@@ -280,6 +280,9 @@
     <t xml:space="preserve">אז זה נכון זה נכון שצריך יותר לשים לב מה אוכלים ומה שותים </t>
   </si>
   <si>
+    <t>c-l/s-p/s</t>
+  </si>
+  <si>
     <t xml:space="preserve">ולקחת את האינסולין בזמן </t>
   </si>
   <si>
@@ -427,6 +430,9 @@
     <t>אתה יודע שזה חדשות קשות לעיכול?</t>
   </si>
   <si>
+    <t>?other</t>
+  </si>
+  <si>
     <t>לך יש ילד חולה בסכרת?</t>
   </si>
   <si>
@@ -440,9 +446,6 @@
   </si>
   <si>
     <t>ו?</t>
-  </si>
-  <si>
-    <t>?other</t>
   </si>
   <si>
     <t xml:space="preserve">והם היו ילדים שחולים בסוכרת והיום הם מבוגרים שחולים עם סוכרת </t>
@@ -937,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -959,23 +962,23 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -986,7 +989,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -997,18 +1000,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1030,18 +1033,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -1085,13 +1088,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1110,32 +1113,32 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1289,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1311,7 +1314,7 @@
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1319,7 +1322,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1399,7 +1402,7 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1498,7 +1501,7 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1509,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1531,7 +1534,7 @@
         <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1539,10 +1542,10 @@
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1564,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1583,10 +1586,10 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1597,34 +1600,34 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
         <v>90</v>
       </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -1646,10 +1649,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -1657,18 +1660,18 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -1679,18 +1682,18 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
@@ -1701,10 +1704,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -1712,18 +1715,18 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -1734,18 +1737,18 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -1756,21 +1759,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -1778,18 +1781,18 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -1800,7 +1803,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -1811,29 +1814,29 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
@@ -1855,29 +1858,29 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -1888,10 +1891,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
@@ -1921,18 +1924,18 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
@@ -1943,54 +1946,54 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -1998,18 +2001,18 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
@@ -2020,10 +2023,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -2031,7 +2034,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -2042,54 +2045,54 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" t="s">
         <v>24</v>
-      </c>
-      <c r="B115" t="s">
-        <v>97</v>
-      </c>
-      <c r="C115" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
         <v>45</v>
@@ -2097,10 +2100,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -2108,21 +2111,21 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -2130,7 +2133,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B120" t="s">
         <v>17</v>
@@ -2141,10 +2144,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -2152,10 +2155,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -2163,18 +2166,18 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
@@ -2185,10 +2188,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -2196,18 +2199,18 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B127" t="s">
         <v>68</v>
@@ -2218,40 +2221,40 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
